--- a/data/total_demand_analysis_results_from_R_table.xlsx
+++ b/data/total_demand_analysis_results_from_R_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\methode_de_prevision_60638\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96AB18-A555-4DE0-A216-85A18DDAE67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90868B9F-5CE7-4C6B-86C3-004204C0E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDD8B59D-2511-412D-A817-87AA02FD937E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>NORTH</t>
   </si>
@@ -179,12 +179,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>Yearly</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Demand Over Time (MW)</a:t>
+              <a:t>Mean Daily Demand Over Time (MW)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -297,34 +293,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7273628</c:v>
+                  <c:v>19873.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7375958</c:v>
+                  <c:v>20208.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7374669</c:v>
+                  <c:v>20204.57</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7315705</c:v>
+                  <c:v>20043.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7230800</c:v>
+                  <c:v>19756.28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7171038</c:v>
+                  <c:v>19646.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7611279</c:v>
+                  <c:v>20852.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7481781</c:v>
+                  <c:v>20498.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7031222</c:v>
+                  <c:v>19210.990000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7174835</c:v>
+                  <c:v>19711.080000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,34 +404,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11851127</c:v>
+                  <c:v>32380.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12099728</c:v>
+                  <c:v>33149.94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12255517</c:v>
+                  <c:v>33576.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12295340</c:v>
+                  <c:v>33685.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12281162</c:v>
+                  <c:v>33555.089999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12265959</c:v>
+                  <c:v>33605.370000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13051235</c:v>
+                  <c:v>35756.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13010605</c:v>
+                  <c:v>35645.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13752866</c:v>
+                  <c:v>37576.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14378919</c:v>
+                  <c:v>39502.519999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -516,37 +512,37 @@
             <c:numRef>
               <c:f>Total!$B$4:$K$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>110406488</c:v>
+                  <c:v>301657.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112648183</c:v>
+                  <c:v>308625.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113164305</c:v>
+                  <c:v>310039.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114433045</c:v>
+                  <c:v>313515.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113765748</c:v>
+                  <c:v>310835.40000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114210009</c:v>
+                  <c:v>312904.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121474578</c:v>
+                  <c:v>332807.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121053514</c:v>
+                  <c:v>331653.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116558817</c:v>
+                  <c:v>318466.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117287351</c:v>
+                  <c:v>322218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,37 +623,37 @@
             <c:numRef>
               <c:f>Total!$B$5:$K$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>129531244</c:v>
+                  <c:v>353910.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132123870</c:v>
+                  <c:v>361983.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132794491</c:v>
+                  <c:v>363820.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134044090</c:v>
+                  <c:v>367244.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133277711</c:v>
+                  <c:v>364146.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>133647006</c:v>
+                  <c:v>366156.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>142137093</c:v>
+                  <c:v>389416.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141545900</c:v>
+                  <c:v>387797</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137342904</c:v>
+                  <c:v>375253.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138841105</c:v>
+                  <c:v>381431.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,7 +906,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Yearly Demand Over Time (%)</a:t>
+              <a:t> Mean Daily Demand Over Time (%)</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1026,31 +1022,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4068632599852509</c:v>
+                  <c:v>1.6846723996517903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7475696038399349E-2</c:v>
+                  <c:v>-1.7468242932283766E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.79954774919389604</c:v>
+                  <c:v>-0.79952208831962701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1605853434494693</c:v>
+                  <c:v>-1.4306719093869542</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.82649222769264807</c:v>
+                  <c:v>-0.55476030912701457</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1391530765838915</c:v>
+                  <c:v>6.1391542998613478</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7013960465777171</c:v>
+                  <c:v>-1.701400577955408</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.0220821753537024</c:v>
+                  <c:v>-6.2788472843487746</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.04250413370535</c:v>
+                  <c:v>2.6031453870935342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,31 +1133,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0976992314739351</c:v>
+                  <c:v>2.3774147911080075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2875413397722659</c:v>
+                  <c:v>1.287543808525746</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32493937220273938</c:v>
+                  <c:v>0.32492712221190651</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.11531197998591336</c:v>
+                  <c:v>-0.38820442761444734</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.12379121780170313</c:v>
+                  <c:v>0.14984313855217232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4020758588871853</c:v>
+                  <c:v>6.4020720497944081</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.31131153488539592</c:v>
+                  <c:v>-0.31132531117848522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7050459990138815</c:v>
+                  <c:v>5.4162532202531137</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5521638907846551</c:v>
+                  <c:v>5.1266042760113129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,31 +1244,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0304015104619575</c:v>
+                  <c:v>2.3099406577866177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45817161560431025</c:v>
+                  <c:v>0.45816090196134335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1211485812597886</c:v>
+                  <c:v>1.1211485515379991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.5831331325667336</c:v>
+                  <c:v>-0.85475919508846399</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39050505781406192</c:v>
+                  <c:v>0.66552908709881609</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3607113453602828</c:v>
+                  <c:v>6.3607348066068807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.34662725891502993</c:v>
+                  <c:v>-0.34662722039282723</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.7129834991820232</c:v>
+                  <c:v>-3.9760774422703178</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62503551318644557</c:v>
+                  <c:v>1.1779253529489859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,31 +1355,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0015448936783158</c:v>
+                  <c:v>2.2810004224231863</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50756990390911194</c:v>
+                  <c:v>0.50756499196647475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94100213840949165</c:v>
+                  <c:v>0.94101349429182157</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.57173650848761781</c:v>
+                  <c:v>-0.84338999591824315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27708684162500358</c:v>
+                  <c:v>0.55181042370824718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3526204245832485</c:v>
+                  <c:v>6.352616724774836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.41593154012232397</c:v>
+                  <c:v>-0.41592977394138758</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.9693519911209014</c:v>
+                  <c:v>-3.2344757695392206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0908470378637107</c:v>
+                  <c:v>1.6462991180902067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,11 +1628,597 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Daily Standard</a:t>
+              <a:t>Average</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Deviaton in Season</a:t>
+              <a:t> Daily Electric Demand (MW) Per Season</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11852777777777777"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NORTH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$D$28:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRING</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SUMMER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18993.689999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19959.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17451.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23587.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C004-4487-964C-B3D43A68C601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EAST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$D$28:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRING</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SUMMER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33851.85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32896.480000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31059.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41521.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C004-4487-964C-B3D43A68C601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NCENT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$D$28:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRING</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SUMMER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>301162.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300251.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271907.96000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>391311.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C004-4487-964C-B3D43A68C601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SOMME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$D$28:$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>WINTER</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRING</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SUMMER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>354007.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>353107.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320419.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>456420.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C004-4487-964C-B3D43A68C601}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1274513600"/>
+        <c:axId val="1274520672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1274513600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274520672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1274520672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1274513600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Electric Demand Standard Deviation Per Season</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1730,16 +2312,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>59975.040000000001</c:v>
+                  <c:v>659.06640000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54311.86</c:v>
+                  <c:v>708.65869999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62964.32</c:v>
+                  <c:v>684.39480000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60226.77</c:v>
+                  <c:v>654.63879999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,7 +2329,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67D8-4DFB-931C-A6A83751F392}"/>
+              <c16:uniqueId val="{00000000-9F87-4C48-8EEE-D0F7EBE596A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1804,16 +2386,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>205188.94</c:v>
+                  <c:v>2254.8235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>229565.44</c:v>
+                  <c:v>2700.3492000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146469.71</c:v>
+                  <c:v>1592.0619999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>266520.14</c:v>
+                  <c:v>2896.9580999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,7 +2403,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-67D8-4DFB-931C-A6A83751F392}"/>
+              <c16:uniqueId val="{00000001-9F87-4C48-8EEE-D0F7EBE596A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1878,16 +2460,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1190068.27</c:v>
+                  <c:v>13077.6733</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1141864.6599999999</c:v>
+                  <c:v>13701.3061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>760408.38</c:v>
+                  <c:v>8265.3083999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1396754.99</c:v>
+                  <c:v>15182.119500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,7 +2477,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-67D8-4DFB-931C-A6A83751F392}"/>
+              <c16:uniqueId val="{00000002-9F87-4C48-8EEE-D0F7EBE596A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1952,16 +2534,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1358255.07</c:v>
+                  <c:v>14925.8799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1365361.16</c:v>
+                  <c:v>16495.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>855338.48</c:v>
+                  <c:v>9297.1574000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1624826.12</c:v>
+                  <c:v>17661.153399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,7 +2551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-67D8-4DFB-931C-A6A83751F392}"/>
+              <c16:uniqueId val="{00000003-9F87-4C48-8EEE-D0F7EBE596A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1982,11 +2564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="871215728"/>
-        <c:axId val="871216144"/>
+        <c:axId val="1181224352"/>
+        <c:axId val="1181221856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="871215728"/>
+        <c:axId val="1181224352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="871216144"/>
+        <c:crossAx val="1181221856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2037,7 +2619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="871216144"/>
+        <c:axId val="1181221856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,7 +2670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="871215728"/>
+        <c:crossAx val="1181224352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2295,6 +2877,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3328,6 +3950,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3884,15 +5022,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>729243</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>107169</xdr:rowOff>
+      <xdr:colOff>718660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>160085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>211163</xdr:colOff>
+      <xdr:colOff>200580</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>128941</xdr:rowOff>
+      <xdr:rowOff>1941</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3917,6 +5055,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>154781</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123031</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AF66C2-BAB8-49A2-9514-62B90121F03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3925,22 +5099,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:colOff>301625</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2481BB3-E707-4358-A140-45B403C44E29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07FC6508-EFC1-4FB2-937E-2ED8031A88F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4258,10 +5432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC977E8A-71B6-4A0F-BB3F-FA278B8686D0}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4315,140 +5489,140 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>7273628</v>
-      </c>
-      <c r="C2" s="3">
-        <v>7375958</v>
-      </c>
-      <c r="D2" s="3">
-        <v>7374669</v>
-      </c>
-      <c r="E2" s="3">
-        <v>7315705</v>
-      </c>
-      <c r="F2" s="3">
-        <v>7230800</v>
-      </c>
-      <c r="G2" s="3">
-        <v>7171038</v>
-      </c>
-      <c r="H2" s="3">
-        <v>7611279</v>
-      </c>
-      <c r="I2" s="3">
-        <v>7481781</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7031222</v>
-      </c>
-      <c r="K2" s="3">
-        <v>7174835</v>
+      <c r="B2">
+        <v>19873.3</v>
+      </c>
+      <c r="C2">
+        <v>20208.099999999999</v>
+      </c>
+      <c r="D2">
+        <v>20204.57</v>
+      </c>
+      <c r="E2">
+        <v>20043.03</v>
+      </c>
+      <c r="F2">
+        <v>19756.28</v>
+      </c>
+      <c r="G2">
+        <v>19646.68</v>
+      </c>
+      <c r="H2">
+        <v>20852.82</v>
+      </c>
+      <c r="I2">
+        <v>20498.03</v>
+      </c>
+      <c r="J2">
+        <v>19210.990000000002</v>
+      </c>
+      <c r="K2">
+        <v>19711.080000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>11851127</v>
-      </c>
-      <c r="C3" s="3">
-        <v>12099728</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12255517</v>
-      </c>
-      <c r="E3" s="3">
-        <v>12295340</v>
-      </c>
-      <c r="F3" s="3">
-        <v>12281162</v>
-      </c>
-      <c r="G3" s="3">
-        <v>12265959</v>
-      </c>
-      <c r="H3" s="3">
-        <v>13051235</v>
-      </c>
-      <c r="I3" s="3">
-        <v>13010605</v>
-      </c>
-      <c r="J3" s="3">
-        <v>13752866</v>
-      </c>
-      <c r="K3" s="3">
-        <v>14378919</v>
+      <c r="B3">
+        <v>32380.13</v>
+      </c>
+      <c r="C3">
+        <v>33149.94</v>
+      </c>
+      <c r="D3">
+        <v>33576.76</v>
+      </c>
+      <c r="E3">
+        <v>33685.86</v>
+      </c>
+      <c r="F3">
+        <v>33555.089999999997</v>
+      </c>
+      <c r="G3">
+        <v>33605.370000000003</v>
+      </c>
+      <c r="H3">
+        <v>35756.81</v>
+      </c>
+      <c r="I3">
+        <v>35645.49</v>
+      </c>
+      <c r="J3">
+        <v>37576.14</v>
+      </c>
+      <c r="K3">
+        <v>39502.519999999997</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>110406488</v>
-      </c>
-      <c r="C4" s="2">
-        <v>112648183</v>
-      </c>
-      <c r="D4" s="2">
-        <v>113164305</v>
-      </c>
-      <c r="E4" s="2">
-        <v>114433045</v>
-      </c>
-      <c r="F4" s="2">
-        <v>113765748</v>
-      </c>
-      <c r="G4" s="2">
-        <v>114210009</v>
-      </c>
-      <c r="H4" s="2">
-        <v>121474578</v>
-      </c>
-      <c r="I4" s="2">
-        <v>121053514</v>
-      </c>
-      <c r="J4" s="2">
-        <v>116558817</v>
-      </c>
-      <c r="K4" s="2">
-        <v>117287351</v>
+      <c r="B4">
+        <v>301657.09999999998</v>
+      </c>
+      <c r="C4">
+        <v>308625.2</v>
+      </c>
+      <c r="D4">
+        <v>310039.2</v>
+      </c>
+      <c r="E4">
+        <v>313515.2</v>
+      </c>
+      <c r="F4">
+        <v>310835.40000000002</v>
+      </c>
+      <c r="G4">
+        <v>312904.09999999998</v>
+      </c>
+      <c r="H4">
+        <v>332807.09999999998</v>
+      </c>
+      <c r="I4">
+        <v>331653.5</v>
+      </c>
+      <c r="J4">
+        <v>318466.7</v>
+      </c>
+      <c r="K4">
+        <v>322218</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>129531244</v>
-      </c>
-      <c r="C5" s="2">
-        <v>132123870</v>
-      </c>
-      <c r="D5" s="2">
-        <v>132794491</v>
-      </c>
-      <c r="E5" s="2">
-        <v>134044090</v>
-      </c>
-      <c r="F5" s="2">
-        <v>133277711</v>
-      </c>
-      <c r="G5" s="2">
-        <v>133647006</v>
-      </c>
-      <c r="H5" s="2">
-        <v>142137093</v>
-      </c>
-      <c r="I5" s="2">
-        <v>141545900</v>
-      </c>
-      <c r="J5" s="2">
-        <v>137342904</v>
-      </c>
-      <c r="K5" s="2">
-        <v>138841105</v>
+      <c r="B5">
+        <v>353910.5</v>
+      </c>
+      <c r="C5">
+        <v>361983.2</v>
+      </c>
+      <c r="D5">
+        <v>363820.5</v>
+      </c>
+      <c r="E5">
+        <v>367244.1</v>
+      </c>
+      <c r="F5">
+        <v>364146.8</v>
+      </c>
+      <c r="G5">
+        <v>366156.2</v>
+      </c>
+      <c r="H5">
+        <v>389416.7</v>
+      </c>
+      <c r="I5">
+        <v>387797</v>
+      </c>
+      <c r="J5">
+        <v>375253.8</v>
+      </c>
+      <c r="K5">
+        <v>381431.6</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -4497,43 +5671,43 @@
       </c>
       <c r="C7">
         <f>100* ((C2-B2)/B2)</f>
-        <v>1.4068632599852509</v>
+        <v>1.6846723996517903</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:K7" si="0">100* ((D2-C2)/C2)</f>
-        <v>-1.7475696038399349E-2</v>
+        <v>-1.7468242932283766E-2</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-0.79954774919389604</v>
+        <v>-0.79952208831962701</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>-1.1605853434494693</v>
+        <v>-1.4306719093869542</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>-0.82649222769264807</v>
+        <v>-0.55476030912701457</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>6.1391530765838915</v>
+        <v>6.1391542998613478</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-1.7013960465777171</v>
+        <v>-1.701400577955408</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>-6.0220821753537024</v>
+        <v>-6.2788472843487746</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>2.04250413370535</v>
+        <f>100* ((K2-J2)/J2)</f>
+        <v>2.6031453870935342</v>
       </c>
       <c r="L7" s="4">
         <f>100*((K2-B2)/B2)</f>
-        <v>-1.3582355325292961</v>
+        <v>-0.81627107727452164</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -4546,43 +5720,43 @@
       </c>
       <c r="C8">
         <f t="shared" ref="C8:K10" si="1">100* ((C3-B3)/B3)</f>
-        <v>2.0976992314739351</v>
+        <v>2.3774147911080075</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>1.2875413397722659</v>
+        <v>1.287543808525746</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.32493937220273938</v>
+        <v>0.32492712221190651</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>-0.11531197998591336</v>
+        <v>-0.38820442761444734</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>-0.12379121780170313</v>
+        <v>0.14984313855217232</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>6.4020758588871853</v>
+        <v>6.4020720497944081</v>
       </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>-0.31131153488539592</v>
+        <v>-0.31132531117848522</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>5.7050459990138815</v>
+        <v>5.4162532202531137</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>4.5521638907846551</v>
+        <v>5.1266042760113129</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" ref="L8:L10" si="2">100*((K3-B3)/B3)</f>
-        <v>21.329549501916571</v>
+        <v>21.996174814616236</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -4595,43 +5769,43 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>2.0304015104619575</v>
+        <v>2.3099406577866177</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>0.45817161560431025</v>
+        <v>0.45816090196134335</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>1.1211485812597886</v>
+        <v>1.1211485515379991</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>-0.5831331325667336</v>
+        <v>-0.85475919508846399</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.39050505781406192</v>
+        <v>0.66552908709881609</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>6.3607113453602828</v>
+        <v>6.3607348066068807</v>
       </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>-0.34662725891502993</v>
+        <v>-0.34662722039282723</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>-3.7129834991820232</v>
+        <v>-3.9760774422703178</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>0.62503551318644557</v>
+        <v>1.1779253529489859</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="2"/>
-        <v>6.2322995003699422</v>
+        <v>6.8159841091093245</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -4644,43 +5818,128 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.0015448936783158</v>
+        <v>2.2810004224231863</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.50756990390911194</v>
+        <v>0.50756499196647475</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0.94100213840949165</v>
+        <v>0.94101349429182157</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>-0.57173650848761781</v>
+        <v>-0.84338999591824315</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.27708684162500358</v>
+        <v>0.55181042370824718</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>6.3526204245832485</v>
+        <v>6.352616724774836</v>
       </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>-0.41593154012232397</v>
+        <v>-0.41592977394138758</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>-2.9693519911209014</v>
+        <v>-3.2344757695392206</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>1.0908470378637107</v>
+        <v>1.6462991180902067</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="2"/>
-        <v>7.1873477876889691</v>
+        <v>7.7762880728319663</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>18993.689999999999</v>
+      </c>
+      <c r="E29">
+        <v>19959.95</v>
+      </c>
+      <c r="F29">
+        <v>17451.75</v>
+      </c>
+      <c r="G29">
+        <v>23587.4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>33851.85</v>
+      </c>
+      <c r="E30">
+        <v>32896.480000000003</v>
+      </c>
+      <c r="F30">
+        <v>31059.89</v>
+      </c>
+      <c r="G30">
+        <v>41521.17</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>301162.05</v>
+      </c>
+      <c r="E31">
+        <v>300251.51</v>
+      </c>
+      <c r="F31">
+        <v>271907.96000000002</v>
+      </c>
+      <c r="G31">
+        <v>391311.85</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>354007.59</v>
+      </c>
+      <c r="E32">
+        <v>353107.94</v>
+      </c>
+      <c r="F32">
+        <v>320419.61</v>
+      </c>
+      <c r="G32">
+        <v>456420.41</v>
       </c>
     </row>
   </sheetData>
@@ -4691,15 +5950,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B714BD7-B739-4B8E-813E-F050AA16EE51}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -4716,84 +5975,72 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>59975.040000000001</v>
+        <v>659.06640000000004</v>
       </c>
       <c r="D2">
-        <v>54311.86</v>
+        <v>708.65869999999995</v>
       </c>
       <c r="E2">
-        <v>62964.32</v>
+        <v>684.39480000000003</v>
       </c>
       <c r="F2">
-        <v>60226.77</v>
+        <v>654.63879999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>205188.94</v>
+        <v>2254.8235</v>
       </c>
       <c r="D3">
-        <v>229565.44</v>
+        <v>2700.3492000000001</v>
       </c>
       <c r="E3">
-        <v>146469.71</v>
+        <v>1592.0619999999999</v>
       </c>
       <c r="F3">
-        <v>266520.14</v>
+        <v>2896.9580999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1190068.27</v>
+        <v>13077.6733</v>
       </c>
       <c r="D4">
-        <v>1141864.6599999999</v>
+        <v>13701.3061</v>
       </c>
       <c r="E4">
-        <v>760408.38</v>
+        <v>8265.3083999999999</v>
       </c>
       <c r="F4">
-        <v>1396754.99</v>
+        <v>15182.119500000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1358255.07</v>
+        <v>14925.8799</v>
       </c>
       <c r="D5">
-        <v>1365361.16</v>
+        <v>16495.16</v>
       </c>
       <c r="E5">
-        <v>855338.48</v>
+        <v>9297.1574000000001</v>
       </c>
       <c r="F5">
-        <v>1624826.12</v>
+        <v>17661.153399999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/total_demand_analysis_results_from_R_table.xlsx
+++ b/data/total_demand_analysis_results_from_R_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\methode_de_prevision_60638\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90868B9F-5CE7-4C6B-86C3-004204C0E623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6AEED-761C-4993-9CEF-D23F6E072E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDD8B59D-2511-412D-A817-87AA02FD937E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>NORTH</t>
   </si>
@@ -902,11 +902,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Delta</a:t>
+              <a:t>Evolution annuelle en %</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Mean Daily Demand Over Time (%)</a:t>
+              <a:t> de la demande lissee par annee/region</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -1628,11 +1628,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Average</a:t>
+              <a:t>Moyenne</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Daily Electric Demand (MW) Per Season</a:t>
+              <a:t> de demande journaliere d'electricite en MWh par saison</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -2214,11 +2214,411 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Daily</a:t>
+              <a:t>Evolution en pourcentage de la demande journaliere d'electricite sur periode 2012 - 2021</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2012 to 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="-5.0925561388159811E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DC36-4719-8D57-818E81C18A5F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$Q$7:$Q$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DELTA NORTH (%)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DELTA EAST (%)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DELTA NCENT (%)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DELTA SOMME (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$R$7:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-0.81627107727452164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.996174814616236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8159841091093245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7762880728319663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC36-4719-8D57-818E81C18A5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1032491919"/>
+        <c:axId val="1032489007"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1032491919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032489007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1032489007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1032491919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Analyse</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> Electric Demand Standard Deviation Per Season</a:t>
+              <a:t> de la variabilite par l'ecart type par saison sur periode 2012 2021 en MWh</a:t>
             </a:r>
             <a:endParaRPr lang="en-CA"/>
           </a:p>
@@ -2917,6 +3317,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4466,6 +4906,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5086,6 +6029,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375708</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164042</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138642</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5647A1F7-210B-492E-8205-80831FD3616C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5432,10 +6411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC977E8A-71B6-4A0F-BB3F-FA278B8686D0}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5450,9 +6429,10 @@
     <col min="9" max="9" width="13.90625" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="18" max="18" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
         <v>2012</v>
@@ -5485,7 +6465,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -5520,7 +6500,7 @@
         <v>19711.080000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5555,7 +6535,7 @@
         <v>39502.519999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5590,7 +6570,7 @@
         <v>322218</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5625,7 +6605,7 @@
         <v>381431.6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>2012</v>
@@ -5660,8 +6640,12 @@
       <c r="L6" t="s">
         <v>8</v>
       </c>
+      <c r="P6" s="2"/>
+      <c r="R6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5674,7 +6658,7 @@
         <v>1.6846723996517903</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:K7" si="0">100* ((D2-C2)/C2)</f>
+        <f t="shared" ref="D7:J7" si="0">100* ((D2-C2)/C2)</f>
         <v>-1.7468242932283766E-2</v>
       </c>
       <c r="E7">
@@ -5709,8 +6693,14 @@
         <f>100*((K2-B2)/B2)</f>
         <v>-0.81627107727452164</v>
       </c>
+      <c r="Q7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>-0.81627107727452164</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5758,8 +6748,14 @@
         <f t="shared" ref="L8:L10" si="2">100*((K3-B3)/B3)</f>
         <v>21.996174814616236</v>
       </c>
+      <c r="Q8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>21.996174814616236</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5807,8 +6803,14 @@
         <f t="shared" si="2"/>
         <v>6.8159841091093245</v>
       </c>
+      <c r="Q9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>6.8159841091093245</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5854,6 +6856,12 @@
       </c>
       <c r="L10" s="4">
         <f t="shared" si="2"/>
+        <v>7.7762880728319663</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R10">
         <v>7.7762880728319663</v>
       </c>
     </row>
@@ -5953,7 +6961,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
